--- a/biology/Botanique/Calliblepharis/Calliblepharis.xlsx
+++ b/biology/Botanique/Calliblepharis/Calliblepharis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calliblepharis est un genre d’algues rouges de la famille des Cystocloniaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de genre Calliblepharis dérive du grec καλός / kalós, beau, et βλέπω - βλεφαρίς / blépo - blepharís, « regarder - cil ; paupière », littéralement « belle vision » ou « beaux cils », probablement en référence à la beauté de l'algue.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (3 février 2019)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (3 février 2019) :
 Calliblepharis bifida (Agardh) J.Agardh (Sans vérification)
 Calliblepharis celatospora Kraft
 Calliblepharis ciliata (Hudson) Kützing (espèce type)
@@ -558,10 +574,10 @@
 Calliblepharis rammediorum R.Hoffman, M.J.Wynne &amp; G.W.Saunders
 Calliblepharis saidana (Holmes) M.Y.Yang &amp; M.S.Kim
 Calliblepharis tenuifolia Harvey (Sans vérification)
-Selon BioLib                    (3 février 2019)[3] et ITIS      (3 février 2019)[4] :
+Selon BioLib                    (3 février 2019) et ITIS      (3 février 2019) :
 Calliblepharis ciliata
 Calliblepharis jubata
-Selon NCBI  (3 février 2019)[5] :
+Selon NCBI  (3 février 2019) :
 Calliblepharis celatospora
 Calliblepharis ciliata
 Calliblepharis fimbriata
@@ -572,7 +588,7 @@
 Calliblepharis psammophilus D'Archino &amp; W.A.Nelson 2015
 Calliblepharis rammediorum Hoffman, Wynne &amp; Saunders 2018
 Calliblepharis saidana (Holmes) M. Y. Yang &amp; M. S. Kim, 2017
-Selon World Register of Marine Species                               (3 février 2019)[2] :
+Selon World Register of Marine Species                               (3 février 2019) :
 Calliblepharis bifida (Agardh) J.Agardh
 Calliblepharis celatospora Kraft, 1998
 Calliblepharis ciliata (Hudson) Kützing, 1843
